--- a/DH307_Dashboard_Code_V19.xlsx
+++ b/DH307_Dashboard_Code_V19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thing\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F16D63-BDB9-4538-AA2F-77A589D0EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687648D8-5C52-4BE1-AB1B-93B8A0F8D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="15" xr2:uid="{16B8DE37-4794-4067-AB8B-C66E46502E76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="27" activeTab="32" xr2:uid="{16B8DE37-4794-4067-AB8B-C66E46502E76}"/>
   </bookViews>
   <sheets>
     <sheet name="dis1_Region" sheetId="1" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0067118-A8C0-4823-B072-DF081E10A999}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9504,7 +9504,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9709,9 +9709,6 @@
       <c r="C16" s="7">
         <v>171</v>
       </c>
-      <c r="D16" s="1">
-        <v>204</v>
-      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
@@ -9774,10 +9771,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8CD52-45A5-4915-BFAE-DEDA2C267869}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9787,7 +9784,7 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -9798,7 +9795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -9809,7 +9806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -9820,7 +9817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
@@ -9831,7 +9828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
@@ -9841,11 +9838,8 @@
       <c r="C5" s="7">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
@@ -9856,7 +9850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
@@ -9867,7 +9861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
@@ -9878,7 +9872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
@@ -9889,7 +9883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>57</v>
       </c>
@@ -9900,7 +9894,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
@@ -9911,7 +9905,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>59</v>
       </c>
@@ -9922,7 +9916,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>60</v>
       </c>
@@ -9933,7 +9927,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>61</v>
       </c>
@@ -9944,7 +9938,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>62</v>
       </c>
@@ -9955,7 +9949,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>63</v>
       </c>
@@ -10233,10 +10227,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC04ECC5-4FEB-498A-B9C0-895B56273FD8}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10333,12 +10327,6 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <f>SUM(B2:B11)</f>
-        <v>204</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10346,10 +10334,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643D9DF4-1C08-4AA6-B481-3B6222C71959}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10493,12 +10481,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <f>SUM(B2:B17)</f>
-        <v>272</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10506,7 +10488,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B0E34-EBB1-4A35-9368-AFE6085B644E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -10603,12 +10585,6 @@
       </c>
       <c r="B11" s="7">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -11587,7 +11563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8E83A6-B2B2-487B-8868-1DB55810C886}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
